--- a/Data/Delphi round 1/response sheets/Kylie Jo-Ma - give your expert opinion on woodland condition1111.xlsx
+++ b/Data/Delphi round 1/response sheets/Kylie Jo-Ma - give your expert opinion on woodland condition1111.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Delphi round 1/response sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="716" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66EAD5E7-B21B-42B2-9980-936D2CB1588F}"/>
+  <xr:revisionPtr revIDLastSave="721" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC433B2-8C20-4692-B642-7AF7EFE8CC63}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4815" windowWidth="16440" windowHeight="28320" firstSheet="13" activeTab="14" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age distribution" sheetId="20" r:id="rId1"/>
@@ -250,6 +250,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2: Enter values in the table below to describe that </t>
     </r>
@@ -259,6 +260,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>typical</t>
     </r>
@@ -267,6 +269,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> relationship</t>
     </r>
@@ -963,12 +966,14 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4946,7 +4951,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
-          <c:min val="0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5366,16 +5371,16 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>70</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22445,7 +22450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3248C487-FA81-4908-B7DC-7E550BAD9141}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -23210,7 +23215,7 @@
   <dimension ref="A1:R54"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23734,8 +23739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E3BDB2-4936-4583-A0D1-731A826C7FE6}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23996,7 +24001,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -24004,7 +24009,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -24012,7 +24017,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -24020,7 +24025,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -26853,25 +26858,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
-      <UserInfo>
-        <DisplayName>Christine Reid</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kylie Jones Mattock</DisplayName>
-        <AccountId>58</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF102A4A1803344B8D888EB900B09227" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43bc291949bcf5a898aed47fdf38e56c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="090e8724-afd2-4a00-8d2e-c87448cad135" xmlns:ns3="cce065d8-4207-498d-8ddb-77753710233a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a89575b99fa510669e25d545522f68e" ns2:_="" ns3:_="">
     <xsd:import namespace="090e8724-afd2-4a00-8d2e-c87448cad135"/>
@@ -27062,6 +27048,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
+      <UserInfo>
+        <DisplayName>Christine Reid</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kylie Jones Mattock</DisplayName>
+        <AccountId>58</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
   <ds:schemaRefs>
@@ -27071,23 +27076,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6617C3D-29D9-48EE-BF3C-21AA1A387073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27104,4 +27092,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Data/Delphi round 1/response sheets/Kylie Jo-Ma - give your expert opinion on woodland condition1111.xlsx
+++ b/Data/Delphi round 1/response sheets/Kylie Jo-Ma - give your expert opinion on woodland condition1111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://woodlandtrustorg-my.sharepoint.com/personal/ewanmchenry_woodlandtrust_org_uk/Documents/WEC/Woodland-condition/Data/Delphi round 1/response sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="721" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DC433B2-8C20-4692-B642-7AF7EFE8CC63}"/>
+  <xr:revisionPtr revIDLastSave="728" documentId="8_{DD3140B9-43BA-428D-8B9F-F9C103859F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2878B23-4089-48D4-A9EE-AD2EE1522499}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="4" activeTab="11" xr2:uid="{4926A777-5F31-4918-9802-F24A87E993EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tree age distribution" sheetId="20" r:id="rId1"/>
@@ -2921,6 +2921,15 @@
                 <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2940,6 +2949,15 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -20843,8 +20861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7D056C-C518-4B2F-B015-B11285D2C994}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21003,8 +21021,12 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>100</v>
+      </c>
       <c r="I14" s="29" t="s">
         <v>11</v>
       </c>
@@ -21018,8 +21040,12 @@
       <c r="Q14" s="13"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>100</v>
+      </c>
       <c r="I15" s="13" t="s">
         <v>81</v>
       </c>
@@ -21033,8 +21059,12 @@
       <c r="Q15" s="13"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>100</v>
+      </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13" t="s">
         <v>123</v>
@@ -23739,7 +23769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E3BDB2-4936-4583-A0D1-731A826C7FE6}">
   <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -26858,6 +26888,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
+      <UserInfo>
+        <DisplayName>Christine Reid</DisplayName>
+        <AccountId>11</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kylie Jones Mattock</DisplayName>
+        <AccountId>58</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF102A4A1803344B8D888EB900B09227" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43bc291949bcf5a898aed47fdf38e56c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="090e8724-afd2-4a00-8d2e-c87448cad135" xmlns:ns3="cce065d8-4207-498d-8ddb-77753710233a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8a89575b99fa510669e25d545522f68e" ns2:_="" ns3:_="">
     <xsd:import namespace="090e8724-afd2-4a00-8d2e-c87448cad135"/>
@@ -27048,25 +27097,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="cce065d8-4207-498d-8ddb-77753710233a">
-      <UserInfo>
-        <DisplayName>Christine Reid</DisplayName>
-        <AccountId>11</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kylie Jones Mattock</DisplayName>
-        <AccountId>58</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170C8C87-D947-4550-B837-5AF2D61371C8}">
   <ds:schemaRefs>
@@ -27076,6 +27106,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6617C3D-29D9-48EE-BF3C-21AA1A387073}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -27092,21 +27139,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98190E4F-1B18-40B8-A20A-C34BFF97A2BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cce065d8-4207-498d-8ddb-77753710233a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="090e8724-afd2-4a00-8d2e-c87448cad135"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>